--- a/로스트아크/데이터테이블/1차완성/Skill_Info_Table.xlsx
+++ b/로스트아크/데이터테이블/1차완성/Skill_Info_Table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sky20\Desktop\진선\GameDesign\로스트아크\데이터테이블\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sky20\Desktop\진선\GameDesign\로스트아크\데이터테이블\1차완성\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10E8B87F-FA2B-4CA9-B083-5A3191A7E923}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5DE329B-39F4-429D-B7F0-E300629AA1EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{8E3DD992-F5CA-43CA-A90A-D3D2390C4793}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8E3DD992-F5CA-43CA-A90A-D3D2390C4793}"/>
   </bookViews>
   <sheets>
     <sheet name="Schema" sheetId="2" r:id="rId1"/>
@@ -2374,6 +2374,24 @@
     <xf numFmtId="177" fontId="3" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2403,24 +2421,6 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2798,7 +2798,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF385D5D-99E2-46DF-BA33-B40AE917BBB4}">
   <dimension ref="B1:Q26"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
@@ -2816,11 +2816,11 @@
   <sheetData>
     <row r="1" spans="2:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:17" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C2" s="55" t="s">
+      <c r="C2" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="56"/>
-      <c r="E2" s="57"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="63"/>
     </row>
     <row r="3" spans="2:17" s="41" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
       <c r="B3" s="36"/>
@@ -2955,76 +2955,76 @@
       <c r="F10" s="35"/>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="C12" s="58"/>
-      <c r="D12" s="58"/>
-      <c r="E12" s="58"/>
-      <c r="F12" s="58"/>
+      <c r="C12" s="64"/>
+      <c r="D12" s="64"/>
+      <c r="E12" s="64"/>
+      <c r="F12" s="64"/>
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="C13" s="58"/>
-      <c r="D13" s="58"/>
-      <c r="E13" s="58"/>
-      <c r="F13" s="58"/>
+      <c r="C13" s="64"/>
+      <c r="D13" s="64"/>
+      <c r="E13" s="64"/>
+      <c r="F13" s="64"/>
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="C14" s="58"/>
-      <c r="D14" s="58"/>
-      <c r="E14" s="58"/>
-      <c r="F14" s="58"/>
+      <c r="C14" s="64"/>
+      <c r="D14" s="64"/>
+      <c r="E14" s="64"/>
+      <c r="F14" s="64"/>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="C15" s="58"/>
-      <c r="D15" s="58"/>
-      <c r="E15" s="58"/>
-      <c r="F15" s="58"/>
+      <c r="C15" s="64"/>
+      <c r="D15" s="64"/>
+      <c r="E15" s="64"/>
+      <c r="F15" s="64"/>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="C16" s="58"/>
-      <c r="D16" s="58"/>
-      <c r="E16" s="58"/>
-      <c r="F16" s="58"/>
+      <c r="C16" s="64"/>
+      <c r="D16" s="64"/>
+      <c r="E16" s="64"/>
+      <c r="F16" s="64"/>
     </row>
     <row r="17" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C17" s="58"/>
-      <c r="D17" s="58"/>
-      <c r="E17" s="58"/>
-      <c r="F17" s="58"/>
+      <c r="C17" s="64"/>
+      <c r="D17" s="64"/>
+      <c r="E17" s="64"/>
+      <c r="F17" s="64"/>
     </row>
     <row r="18" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C18" s="58"/>
-      <c r="D18" s="58"/>
-      <c r="E18" s="58"/>
-      <c r="F18" s="58"/>
+      <c r="C18" s="64"/>
+      <c r="D18" s="64"/>
+      <c r="E18" s="64"/>
+      <c r="F18" s="64"/>
     </row>
     <row r="19" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C19" s="58"/>
-      <c r="D19" s="58"/>
-      <c r="E19" s="58"/>
-      <c r="F19" s="58"/>
+      <c r="C19" s="64"/>
+      <c r="D19" s="64"/>
+      <c r="E19" s="64"/>
+      <c r="F19" s="64"/>
     </row>
     <row r="20" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C20" s="58"/>
-      <c r="D20" s="58"/>
-      <c r="E20" s="58"/>
-      <c r="F20" s="58"/>
+      <c r="C20" s="64"/>
+      <c r="D20" s="64"/>
+      <c r="E20" s="64"/>
+      <c r="F20" s="64"/>
     </row>
     <row r="21" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C21" s="58"/>
-      <c r="D21" s="58"/>
-      <c r="E21" s="58"/>
-      <c r="F21" s="58"/>
+      <c r="C21" s="64"/>
+      <c r="D21" s="64"/>
+      <c r="E21" s="64"/>
+      <c r="F21" s="64"/>
     </row>
     <row r="22" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C22" s="58"/>
-      <c r="D22" s="58"/>
-      <c r="E22" s="58"/>
-      <c r="F22" s="58"/>
+      <c r="C22" s="64"/>
+      <c r="D22" s="64"/>
+      <c r="E22" s="64"/>
+      <c r="F22" s="64"/>
     </row>
     <row r="23" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C23" s="58"/>
-      <c r="D23" s="58"/>
-      <c r="E23" s="58"/>
-      <c r="F23" s="58"/>
+      <c r="C23" s="64"/>
+      <c r="D23" s="64"/>
+      <c r="E23" s="64"/>
+      <c r="F23" s="64"/>
     </row>
     <row r="24" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C24" s="44"/>
@@ -3060,8 +3060,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC540C7E-1D9A-4204-BA37-262FBD0C3DDD}">
   <dimension ref="A1:AF109"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A104" sqref="A104:XFD104"/>
+    <sheetView topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35:F68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="10.8" x14ac:dyDescent="0.4"/>
@@ -3130,36 +3130,36 @@
       <c r="AE1" s="2"/>
       <c r="AF1" s="2"/>
     </row>
-    <row r="2" spans="1:32" s="70" customFormat="1" ht="10.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="65" t="s">
+    <row r="2" spans="1:32" s="60" customFormat="1" ht="10.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="55" t="s">
         <v>294</v>
       </c>
-      <c r="B2" s="66" t="s">
+      <c r="B2" s="56" t="s">
         <v>294</v>
       </c>
-      <c r="C2" s="67" t="s">
+      <c r="C2" s="57" t="s">
         <v>294</v>
       </c>
-      <c r="D2" s="66" t="s">
+      <c r="D2" s="56" t="s">
         <v>294</v>
       </c>
-      <c r="E2" s="66" t="s">
+      <c r="E2" s="56" t="s">
         <v>294</v>
       </c>
-      <c r="F2" s="66" t="s">
+      <c r="F2" s="56" t="s">
         <v>294</v>
       </c>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="66"/>
-      <c r="K2" s="66"/>
-      <c r="L2" s="66"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="68"/>
-      <c r="O2" s="69"/>
-      <c r="P2" s="69"/>
-      <c r="Q2" s="69"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="56"/>
+      <c r="N2" s="58"/>
+      <c r="O2" s="59"/>
+      <c r="P2" s="59"/>
+      <c r="Q2" s="59"/>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A3" s="48" t="s">
@@ -3282,7 +3282,7 @@
       <c r="AB5" s="4"/>
     </row>
     <row r="6" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="68" t="s">
         <v>394</v>
       </c>
       <c r="B6" s="8" t="s">
@@ -3310,7 +3310,7 @@
       <c r="AB6" s="4"/>
     </row>
     <row r="7" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="63"/>
+      <c r="A7" s="69"/>
       <c r="B7" s="8" t="s">
         <v>301</v>
       </c>
@@ -3336,7 +3336,7 @@
       <c r="AB7" s="4"/>
     </row>
     <row r="8" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="63"/>
+      <c r="A8" s="69"/>
       <c r="B8" s="8" t="s">
         <v>302</v>
       </c>
@@ -3362,7 +3362,7 @@
       <c r="AB8" s="4"/>
     </row>
     <row r="9" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="63"/>
+      <c r="A9" s="69"/>
       <c r="B9" s="8" t="s">
         <v>303</v>
       </c>
@@ -3388,7 +3388,7 @@
       <c r="AB9" s="4"/>
     </row>
     <row r="10" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="63"/>
+      <c r="A10" s="69"/>
       <c r="B10" s="8" t="s">
         <v>304</v>
       </c>
@@ -3414,7 +3414,7 @@
       <c r="AB10" s="4"/>
     </row>
     <row r="11" spans="1:32" s="5" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
-      <c r="A11" s="64"/>
+      <c r="A11" s="70"/>
       <c r="B11" s="8" t="s">
         <v>305</v>
       </c>
@@ -3440,7 +3440,7 @@
       <c r="AB11" s="4"/>
     </row>
     <row r="12" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="59" t="s">
+      <c r="A12" s="65" t="s">
         <v>376</v>
       </c>
       <c r="B12" s="8" t="s">
@@ -3468,7 +3468,7 @@
       <c r="AB12" s="4"/>
     </row>
     <row r="13" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="60"/>
+      <c r="A13" s="66"/>
       <c r="B13" s="8" t="s">
         <v>307</v>
       </c>
@@ -3494,7 +3494,7 @@
       <c r="AB13" s="4"/>
     </row>
     <row r="14" spans="1:32" s="5" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
-      <c r="A14" s="60"/>
+      <c r="A14" s="66"/>
       <c r="B14" s="8" t="s">
         <v>308</v>
       </c>
@@ -3520,7 +3520,7 @@
       <c r="AB14" s="4"/>
     </row>
     <row r="15" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="60"/>
+      <c r="A15" s="66"/>
       <c r="B15" s="8" t="s">
         <v>309</v>
       </c>
@@ -3546,7 +3546,7 @@
       <c r="AB15" s="4"/>
     </row>
     <row r="16" spans="1:32" s="5" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
-      <c r="A16" s="60"/>
+      <c r="A16" s="66"/>
       <c r="B16" s="8" t="s">
         <v>310</v>
       </c>
@@ -3572,7 +3572,7 @@
       <c r="AB16" s="4"/>
     </row>
     <row r="17" spans="1:28" s="5" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
-      <c r="A17" s="61"/>
+      <c r="A17" s="67"/>
       <c r="B17" s="8" t="s">
         <v>311</v>
       </c>
@@ -3598,7 +3598,7 @@
       <c r="AB17" s="4"/>
     </row>
     <row r="18" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="59" t="s">
+      <c r="A18" s="65" t="s">
         <v>382</v>
       </c>
       <c r="B18" s="8" t="s">
@@ -3626,7 +3626,7 @@
       <c r="AB18" s="4"/>
     </row>
     <row r="19" spans="1:28" s="5" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
-      <c r="A19" s="60"/>
+      <c r="A19" s="66"/>
       <c r="B19" s="8" t="s">
         <v>313</v>
       </c>
@@ -3652,7 +3652,7 @@
       <c r="AB19" s="4"/>
     </row>
     <row r="20" spans="1:28" s="5" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
-      <c r="A20" s="60"/>
+      <c r="A20" s="66"/>
       <c r="B20" s="8" t="s">
         <v>314</v>
       </c>
@@ -3678,7 +3678,7 @@
       <c r="AB20" s="4"/>
     </row>
     <row r="21" spans="1:28" s="5" customFormat="1" ht="32.4" x14ac:dyDescent="0.4">
-      <c r="A21" s="60"/>
+      <c r="A21" s="66"/>
       <c r="B21" s="8" t="s">
         <v>315</v>
       </c>
@@ -3704,7 +3704,7 @@
       <c r="AB21" s="4"/>
     </row>
     <row r="22" spans="1:28" s="5" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
-      <c r="A22" s="60"/>
+      <c r="A22" s="66"/>
       <c r="B22" s="8" t="s">
         <v>316</v>
       </c>
@@ -3730,7 +3730,7 @@
       <c r="AB22" s="4"/>
     </row>
     <row r="23" spans="1:28" s="5" customFormat="1" ht="32.4" x14ac:dyDescent="0.4">
-      <c r="A23" s="61"/>
+      <c r="A23" s="67"/>
       <c r="B23" s="8" t="s">
         <v>317</v>
       </c>
@@ -4035,36 +4035,36 @@
       <c r="AA33" s="4"/>
       <c r="AB33" s="4"/>
     </row>
-    <row r="34" spans="1:32" s="70" customFormat="1" ht="10.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="65" t="s">
+    <row r="34" spans="1:32" s="60" customFormat="1" ht="10.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="55" t="s">
         <v>294</v>
       </c>
-      <c r="B34" s="66" t="s">
+      <c r="B34" s="56" t="s">
         <v>294</v>
       </c>
-      <c r="C34" s="67" t="s">
+      <c r="C34" s="57" t="s">
         <v>294</v>
       </c>
-      <c r="D34" s="66" t="s">
+      <c r="D34" s="56" t="s">
         <v>294</v>
       </c>
-      <c r="E34" s="66" t="s">
+      <c r="E34" s="56" t="s">
         <v>294</v>
       </c>
-      <c r="F34" s="66" t="s">
+      <c r="F34" s="56" t="s">
         <v>294</v>
       </c>
-      <c r="G34" s="66"/>
-      <c r="H34" s="66"/>
-      <c r="I34" s="66"/>
-      <c r="J34" s="66"/>
-      <c r="K34" s="66"/>
-      <c r="L34" s="66"/>
-      <c r="M34" s="66"/>
-      <c r="N34" s="68"/>
-      <c r="O34" s="69"/>
-      <c r="P34" s="69"/>
-      <c r="Q34" s="69"/>
+      <c r="G34" s="56"/>
+      <c r="H34" s="56"/>
+      <c r="I34" s="56"/>
+      <c r="J34" s="56"/>
+      <c r="K34" s="56"/>
+      <c r="L34" s="56"/>
+      <c r="M34" s="56"/>
+      <c r="N34" s="58"/>
+      <c r="O34" s="59"/>
+      <c r="P34" s="59"/>
+      <c r="Q34" s="59"/>
     </row>
     <row r="35" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A35" s="48" t="s">
@@ -4243,7 +4243,7 @@
       <c r="AB39" s="4"/>
     </row>
     <row r="40" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="59" t="s">
+      <c r="A40" s="65" t="s">
         <v>130</v>
       </c>
       <c r="B40" s="8" t="s">
@@ -4271,7 +4271,7 @@
       <c r="AB40" s="4"/>
     </row>
     <row r="41" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="60"/>
+      <c r="A41" s="66"/>
       <c r="B41" s="8" t="s">
         <v>99</v>
       </c>
@@ -4297,7 +4297,7 @@
       <c r="AB41" s="4"/>
     </row>
     <row r="42" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="60"/>
+      <c r="A42" s="66"/>
       <c r="B42" s="8" t="s">
         <v>100</v>
       </c>
@@ -4323,7 +4323,7 @@
       <c r="AB42" s="4"/>
     </row>
     <row r="43" spans="1:32" s="5" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
-      <c r="A43" s="60"/>
+      <c r="A43" s="66"/>
       <c r="B43" s="8" t="s">
         <v>101</v>
       </c>
@@ -4349,7 +4349,7 @@
       <c r="AB43" s="4"/>
     </row>
     <row r="44" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="60"/>
+      <c r="A44" s="66"/>
       <c r="B44" s="8" t="s">
         <v>102</v>
       </c>
@@ -4375,7 +4375,7 @@
       <c r="AB44" s="4"/>
     </row>
     <row r="45" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="60"/>
+      <c r="A45" s="66"/>
       <c r="B45" s="8" t="s">
         <v>103</v>
       </c>
@@ -4401,7 +4401,7 @@
       <c r="AB45" s="4"/>
     </row>
     <row r="46" spans="1:32" s="5" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
-      <c r="A46" s="60"/>
+      <c r="A46" s="66"/>
       <c r="B46" s="8" t="s">
         <v>104</v>
       </c>
@@ -4427,7 +4427,7 @@
       <c r="AB46" s="4"/>
     </row>
     <row r="47" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="60"/>
+      <c r="A47" s="66"/>
       <c r="B47" s="8" t="s">
         <v>105</v>
       </c>
@@ -4453,7 +4453,7 @@
       <c r="AB47" s="4"/>
     </row>
     <row r="48" spans="1:32" s="5" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
-      <c r="A48" s="60"/>
+      <c r="A48" s="66"/>
       <c r="B48" s="8" t="s">
         <v>106</v>
       </c>
@@ -4479,7 +4479,7 @@
       <c r="AB48" s="4"/>
     </row>
     <row r="49" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="60"/>
+      <c r="A49" s="66"/>
       <c r="B49" s="8" t="s">
         <v>107</v>
       </c>
@@ -4505,7 +4505,7 @@
       <c r="AB49" s="4"/>
     </row>
     <row r="50" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A50" s="60"/>
+      <c r="A50" s="66"/>
       <c r="B50" s="8" t="s">
         <v>108</v>
       </c>
@@ -4531,7 +4531,7 @@
       <c r="AB50" s="4"/>
     </row>
     <row r="51" spans="1:28" s="5" customFormat="1" ht="32.4" x14ac:dyDescent="0.4">
-      <c r="A51" s="60"/>
+      <c r="A51" s="66"/>
       <c r="B51" s="8" t="s">
         <v>109</v>
       </c>
@@ -4557,7 +4557,7 @@
       <c r="AB51" s="4"/>
     </row>
     <row r="52" spans="1:28" s="5" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
-      <c r="A52" s="60"/>
+      <c r="A52" s="66"/>
       <c r="B52" s="8" t="s">
         <v>110</v>
       </c>
@@ -4583,7 +4583,7 @@
       <c r="AB52" s="4"/>
     </row>
     <row r="53" spans="1:28" s="5" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
-      <c r="A53" s="61"/>
+      <c r="A53" s="67"/>
       <c r="B53" s="8" t="s">
         <v>111</v>
       </c>
@@ -4637,7 +4637,7 @@
       <c r="AB54" s="4"/>
     </row>
     <row r="55" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A55" s="62" t="s">
+      <c r="A55" s="68" t="s">
         <v>131</v>
       </c>
       <c r="B55" s="8" t="s">
@@ -4665,7 +4665,7 @@
       <c r="AB55" s="4"/>
     </row>
     <row r="56" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A56" s="63"/>
+      <c r="A56" s="69"/>
       <c r="B56" s="8" t="s">
         <v>114</v>
       </c>
@@ -4691,7 +4691,7 @@
       <c r="AB56" s="4"/>
     </row>
     <row r="57" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A57" s="63"/>
+      <c r="A57" s="69"/>
       <c r="B57" s="8" t="s">
         <v>115</v>
       </c>
@@ -4717,7 +4717,7 @@
       <c r="AB57" s="4"/>
     </row>
     <row r="58" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A58" s="63"/>
+      <c r="A58" s="69"/>
       <c r="B58" s="8" t="s">
         <v>116</v>
       </c>
@@ -4743,7 +4743,7 @@
       <c r="AB58" s="4"/>
     </row>
     <row r="59" spans="1:28" s="5" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
-      <c r="A59" s="63"/>
+      <c r="A59" s="69"/>
       <c r="B59" s="8" t="s">
         <v>117</v>
       </c>
@@ -4769,7 +4769,7 @@
       <c r="AB59" s="4"/>
     </row>
     <row r="60" spans="1:28" s="5" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
-      <c r="A60" s="64"/>
+      <c r="A60" s="70"/>
       <c r="B60" s="8" t="s">
         <v>118</v>
       </c>
@@ -5016,36 +5016,36 @@
       <c r="AA68" s="4"/>
       <c r="AB68" s="4"/>
     </row>
-    <row r="69" spans="1:32" s="70" customFormat="1" ht="10.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A69" s="65" t="s">
+    <row r="69" spans="1:32" s="60" customFormat="1" ht="10.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A69" s="55" t="s">
         <v>294</v>
       </c>
-      <c r="B69" s="66" t="s">
+      <c r="B69" s="56" t="s">
         <v>294</v>
       </c>
-      <c r="C69" s="67" t="s">
+      <c r="C69" s="57" t="s">
         <v>294</v>
       </c>
-      <c r="D69" s="66" t="s">
+      <c r="D69" s="56" t="s">
         <v>294</v>
       </c>
-      <c r="E69" s="66" t="s">
+      <c r="E69" s="56" t="s">
         <v>294</v>
       </c>
-      <c r="F69" s="66" t="s">
+      <c r="F69" s="56" t="s">
         <v>294</v>
       </c>
-      <c r="G69" s="66"/>
-      <c r="H69" s="66"/>
-      <c r="I69" s="66"/>
-      <c r="J69" s="66"/>
-      <c r="K69" s="66"/>
-      <c r="L69" s="66"/>
-      <c r="M69" s="66"/>
-      <c r="N69" s="68"/>
-      <c r="O69" s="69"/>
-      <c r="P69" s="69"/>
-      <c r="Q69" s="69"/>
+      <c r="G69" s="56"/>
+      <c r="H69" s="56"/>
+      <c r="I69" s="56"/>
+      <c r="J69" s="56"/>
+      <c r="K69" s="56"/>
+      <c r="L69" s="56"/>
+      <c r="M69" s="56"/>
+      <c r="N69" s="58"/>
+      <c r="O69" s="59"/>
+      <c r="P69" s="59"/>
+      <c r="Q69" s="59"/>
     </row>
     <row r="70" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A70" s="48" t="s">
@@ -5196,7 +5196,7 @@
       <c r="AB73" s="4"/>
     </row>
     <row r="74" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A74" s="62" t="s">
+      <c r="A74" s="68" t="s">
         <v>232</v>
       </c>
       <c r="B74" s="8" t="s">
@@ -5224,7 +5224,7 @@
       <c r="AB74" s="4"/>
     </row>
     <row r="75" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A75" s="63"/>
+      <c r="A75" s="69"/>
       <c r="B75" s="8" t="s">
         <v>173</v>
       </c>
@@ -5250,7 +5250,7 @@
       <c r="AB75" s="4"/>
     </row>
     <row r="76" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A76" s="63"/>
+      <c r="A76" s="69"/>
       <c r="B76" s="8" t="s">
         <v>174</v>
       </c>
@@ -5276,7 +5276,7 @@
       <c r="AB76" s="4"/>
     </row>
     <row r="77" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A77" s="63"/>
+      <c r="A77" s="69"/>
       <c r="B77" s="8" t="s">
         <v>175</v>
       </c>
@@ -5302,7 +5302,7 @@
       <c r="AB77" s="4"/>
     </row>
     <row r="78" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A78" s="63"/>
+      <c r="A78" s="69"/>
       <c r="B78" s="8" t="s">
         <v>176</v>
       </c>
@@ -5328,7 +5328,7 @@
       <c r="AB78" s="4"/>
     </row>
     <row r="79" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A79" s="63"/>
+      <c r="A79" s="69"/>
       <c r="B79" s="8" t="s">
         <v>177</v>
       </c>
@@ -5354,7 +5354,7 @@
       <c r="AB79" s="4"/>
     </row>
     <row r="80" spans="1:32" s="5" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
-      <c r="A80" s="63"/>
+      <c r="A80" s="69"/>
       <c r="B80" s="8" t="s">
         <v>178</v>
       </c>
@@ -5380,7 +5380,7 @@
       <c r="AB80" s="4"/>
     </row>
     <row r="81" spans="1:28" s="5" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
-      <c r="A81" s="63"/>
+      <c r="A81" s="69"/>
       <c r="B81" s="8" t="s">
         <v>179</v>
       </c>
@@ -5406,7 +5406,7 @@
       <c r="AB81" s="4"/>
     </row>
     <row r="82" spans="1:28" s="5" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
-      <c r="A82" s="64"/>
+      <c r="A82" s="70"/>
       <c r="B82" s="8" t="s">
         <v>180</v>
       </c>
@@ -5432,7 +5432,7 @@
       <c r="AB82" s="4"/>
     </row>
     <row r="83" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A83" s="59" t="s">
+      <c r="A83" s="65" t="s">
         <v>233</v>
       </c>
       <c r="B83" s="8" t="s">
@@ -5460,7 +5460,7 @@
       <c r="AB83" s="4"/>
     </row>
     <row r="84" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A84" s="60"/>
+      <c r="A84" s="66"/>
       <c r="B84" s="8" t="s">
         <v>182</v>
       </c>
@@ -5486,7 +5486,7 @@
       <c r="AB84" s="4"/>
     </row>
     <row r="85" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A85" s="60"/>
+      <c r="A85" s="66"/>
       <c r="B85" s="8" t="s">
         <v>183</v>
       </c>
@@ -5512,7 +5512,7 @@
       <c r="AB85" s="4"/>
     </row>
     <row r="86" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A86" s="60"/>
+      <c r="A86" s="66"/>
       <c r="B86" s="8" t="s">
         <v>184</v>
       </c>
@@ -5538,7 +5538,7 @@
       <c r="AB86" s="4"/>
     </row>
     <row r="87" spans="1:28" s="5" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
-      <c r="A87" s="60"/>
+      <c r="A87" s="66"/>
       <c r="B87" s="8" t="s">
         <v>185</v>
       </c>
@@ -5564,7 +5564,7 @@
       <c r="AB87" s="4"/>
     </row>
     <row r="88" spans="1:28" s="5" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
-      <c r="A88" s="60"/>
+      <c r="A88" s="66"/>
       <c r="B88" s="8" t="s">
         <v>186</v>
       </c>
@@ -5590,7 +5590,7 @@
       <c r="AB88" s="4"/>
     </row>
     <row r="89" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A89" s="60"/>
+      <c r="A89" s="66"/>
       <c r="B89" s="8" t="s">
         <v>187</v>
       </c>
@@ -5616,7 +5616,7 @@
       <c r="AB89" s="4"/>
     </row>
     <row r="90" spans="1:28" s="5" customFormat="1" ht="21.6" x14ac:dyDescent="0.4">
-      <c r="A90" s="60"/>
+      <c r="A90" s="66"/>
       <c r="B90" s="8" t="s">
         <v>188</v>
       </c>
@@ -5642,7 +5642,7 @@
       <c r="AB90" s="4"/>
     </row>
     <row r="91" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A91" s="61"/>
+      <c r="A91" s="67"/>
       <c r="B91" s="8" t="s">
         <v>189</v>
       </c>
@@ -6003,36 +6003,36 @@
       <c r="AA103" s="4"/>
       <c r="AB103" s="4"/>
     </row>
-    <row r="104" spans="1:28" s="70" customFormat="1" ht="10.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A104" s="65" t="s">
+    <row r="104" spans="1:28" s="60" customFormat="1" ht="10.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A104" s="55" t="s">
         <v>294</v>
       </c>
-      <c r="B104" s="66" t="s">
+      <c r="B104" s="56" t="s">
         <v>294</v>
       </c>
-      <c r="C104" s="67" t="s">
+      <c r="C104" s="57" t="s">
         <v>294</v>
       </c>
-      <c r="D104" s="66" t="s">
+      <c r="D104" s="56" t="s">
         <v>294</v>
       </c>
-      <c r="E104" s="66" t="s">
+      <c r="E104" s="56" t="s">
         <v>294</v>
       </c>
-      <c r="F104" s="66" t="s">
+      <c r="F104" s="56" t="s">
         <v>294</v>
       </c>
-      <c r="G104" s="66"/>
-      <c r="H104" s="66"/>
-      <c r="I104" s="66"/>
-      <c r="J104" s="66"/>
-      <c r="K104" s="66"/>
-      <c r="L104" s="66"/>
-      <c r="M104" s="66"/>
-      <c r="N104" s="68"/>
-      <c r="O104" s="69"/>
-      <c r="P104" s="69"/>
-      <c r="Q104" s="69"/>
+      <c r="G104" s="56"/>
+      <c r="H104" s="56"/>
+      <c r="I104" s="56"/>
+      <c r="J104" s="56"/>
+      <c r="K104" s="56"/>
+      <c r="L104" s="56"/>
+      <c r="M104" s="56"/>
+      <c r="N104" s="58"/>
+      <c r="O104" s="59"/>
+      <c r="P104" s="59"/>
+      <c r="Q104" s="59"/>
     </row>
     <row r="105" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A105" s="7"/>
